--- a/MakeTokumLaugh/LubanTools/Datas/Item.xlsx
+++ b/MakeTokumLaugh/LubanTools/Datas/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CG\MakeTokumLaugh\MakeTokumLaugh\LubanTools\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DFF9367-F70C-4391-8166-095F29677404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0951071F-8F23-4AC3-9F21-A49E71132F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,113 +17,280 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+  <si>
+    <t>##var</t>
+  </si>
   <si>
     <t>id</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>prefab</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>is_reserved</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>##</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##var</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##type</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>##</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>bool</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>主键，道具Id</t>
+  </si>
+  <si>
+    <t>道具图片icon</t>
+  </si>
+  <si>
+    <t>名字备注</t>
+  </si>
+  <si>
+    <t>弹窗反馈效果描述</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>道具夸关是否保留</t>
+  </si>
+  <si>
+    <t>解锁道具id</t>
+  </si>
+  <si>
+    <t>icon_shoutao.png</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>icon_falao.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>法老</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ocean Cat（语音+大哈鱼），跳出下一个道具</t>
+    </r>
+  </si>
+  <si>
+    <t>icon_damedane.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damedane的母体（头像）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>母体唱damedane的gif，跳出下一个道具</t>
+    </r>
+  </si>
+  <si>
+    <t>icon_tongsheng.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>桐生一马</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>苦酒入喉新作痛，跳出下一个道具</t>
+    </r>
+  </si>
+  <si>
+    <t>icon_geiwowan.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给我玩明日方舟.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明日方舟，启动——开错游戏了，Gameover</t>
+    </r>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>icon_shouji.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF319B62"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手机→指纹解锁手机</t>
+    </r>
+  </si>
+  <si>
+    <t>icon_zhifubao.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF319B62"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>支付宝→充钱648</t>
+    </r>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>icon_jiuchan.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF319B62"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纠缠之缘→原神启动</t>
+    </r>
+  </si>
+  <si>
+    <t>V</t>
   </si>
   <si>
     <t>注释</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>主键，道具Id</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具图片icon</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>预制体</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item1.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>item1.prefab</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>弹窗反馈效果描述</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>result</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>结果</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>GameOver</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_reserved</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具夸关是否保留</t>
-    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>预制体(不用写后缀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>shoutao</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手套→裤子里伸出一只手</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +300,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF319B62"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -147,7 +342,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF319B62"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -176,7 +380,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -185,6 +389,21 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -490,139 +709,384 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="5" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="6" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="6.77734375" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" customWidth="1"/>
-    <col min="5" max="5" width="22.21875" customWidth="1"/>
-    <col min="6" max="6" width="36.77734375" customWidth="1"/>
-    <col min="7" max="7" width="49.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.21875" customWidth="1"/>
+    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="10.33203125" customWidth="1"/>
+    <col min="8" max="8" width="49.21875" customWidth="1"/>
+    <col min="9" max="9" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>111</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="I4">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>112</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="E5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="I5">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>113</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>114</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>115</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H9" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="B10">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="2" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>141</v>
+      </c>
+      <c r="C17" t="s">
+        <v>39</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" t="s">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18">
+        <v>142</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19">
+        <v>143</v>
+      </c>
+      <c r="G19" t="s">
+        <v>33</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>144</v>
+      </c>
+      <c r="G20" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -636,7 +1100,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -650,7 +1114,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="3" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/MakeTokumLaugh/LubanTools/Datas/Item.xlsx
+++ b/MakeTokumLaugh/LubanTools/Datas/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CG\MakeTokumLaugh\MakeTokumLaugh\LubanTools\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0951071F-8F23-4AC3-9F21-A49E71132F6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA6C9D7-8519-40CB-857B-D70CAD76A29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,272 +18,416 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
   <si>
     <t>##var</t>
   </si>
   <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>desc</t>
+  </si>
+  <si>
+    <t>prefab</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
+    <t>##</t>
+  </si>
+  <si>
+    <t>主键，道具Id</t>
+  </si>
+  <si>
+    <t>道具图片icon</t>
+  </si>
+  <si>
+    <t>名字备注</t>
+  </si>
+  <si>
+    <t>弹窗反馈效果描述</t>
+  </si>
+  <si>
+    <t>结果</t>
+  </si>
+  <si>
+    <t>道具夸关是否保留</t>
+  </si>
+  <si>
+    <t>解锁道具id</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>法老</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ocean Cat（语音+大哈鱼），跳出下一个道具</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>damedane的母体（头像）</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>母体唱damedane的gif，跳出下一个道具</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>桐生一马</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>苦酒入喉新作痛，跳出下一个道具</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>给我玩明日方舟.jpg</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>明日方舟，启动——开错游戏了，Gameover</t>
+    </r>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>预制体(不用写后缀</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>手套→裤子里伸出一只手</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>lock_id</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>id</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>desc</t>
-  </si>
-  <si>
-    <t>prefab</t>
-  </si>
-  <si>
-    <t>result</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_falao.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_shoutao.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_damedane.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_tongsheng.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_geiwowan.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_shouji.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_shoutao</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_falao</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_damedane</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_tongsheng</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_1_geiwowan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2_shouji</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11shoutao</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11falao</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11damedane</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11tongsheng</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>11geiwowan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>12shouji</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF319B62"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>手机→指纹解锁手机</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDE3C36"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>棒球棍→规则就是用来打破的，打尿崩，gameover</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDE3C36"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>雷神专武→无想の一刀，拉链劈开了，人也劈开了gameover</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDE3C36"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>林克的帽子→从裤裆拔出了大师之剑，拿着大师之剑尿崩了gameover</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF319B62"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>支付宝→充钱648</t>
+    </r>
+  </si>
+  <si>
+    <t>元梦之心，启动！</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFDE3C36"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哔哩哔哩→成为了百大但是尿崩了gameover</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color rgb="FF319B62"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>纠缠之缘→原神启动</t>
+    </r>
+  </si>
+  <si>
+    <t>蓝色修改器</t>
+  </si>
+  <si>
+    <t>绿色修改器</t>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_zhifubao.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3_zhifubao</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3_weixin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_weixin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13weixin</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>13zhifubao</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>icon_jiuchan.png</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_4_jiuchan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>14jiuchan</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>is_reserved</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>##</t>
-  </si>
-  <si>
-    <t>主键，道具Id</t>
-  </si>
-  <si>
-    <t>道具图片icon</t>
-  </si>
-  <si>
-    <t>名字备注</t>
-  </si>
-  <si>
-    <t>弹窗反馈效果描述</t>
-  </si>
-  <si>
-    <t>结果</t>
-  </si>
-  <si>
-    <t>道具夸关是否保留</t>
-  </si>
-  <si>
-    <t>解锁道具id</t>
-  </si>
-  <si>
-    <t>icon_shoutao.png</t>
-  </si>
-  <si>
-    <t>P</t>
-  </si>
-  <si>
-    <t>icon_falao.png</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>法老</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ocean Cat（语音+大哈鱼），跳出下一个道具</t>
-    </r>
-  </si>
-  <si>
-    <t>icon_damedane.png</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>damedane的母体（头像）</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>母体唱damedane的gif，跳出下一个道具</t>
-    </r>
-  </si>
-  <si>
-    <t>icon_tongsheng.png</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>桐生一马</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>苦酒入喉新作痛，跳出下一个道具</t>
-    </r>
-  </si>
-  <si>
-    <t>icon_geiwowan.png</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>给我玩明日方舟.jpg</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>明日方舟，启动——开错游戏了，Gameover</t>
-    </r>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>icon_shouji.png</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF319B62"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>手机→指纹解锁手机</t>
-    </r>
-  </si>
-  <si>
-    <t>icon_zhifubao.png</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF319B62"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>支付宝→充钱648</t>
-    </r>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>icon_jiuchan.png</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <color rgb="FF319B62"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>纠缠之缘→原神启动</t>
-    </r>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>预制体(不用写后缀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>shoutao</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>手套→裤子里伸出一只手</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -307,14 +451,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FF319B62"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -357,13 +493,27 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFDE3C36"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -380,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -393,16 +543,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -709,13 +862,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane xSplit="6" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H12" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -735,358 +888,426 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>47</v>
+      <c r="H1" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>34</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="I3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4">
-        <v>111</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="H4" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="I4">
-        <v>121</v>
+      <c r="I4" s="4" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>112</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>23</v>
+      <c r="B5" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="I5">
-        <v>113</v>
+      <c r="I5" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6">
-        <v>113</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>26</v>
+      <c r="B6" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>49</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
-      <c r="I6">
-        <v>114</v>
+      <c r="I6" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>114</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>29</v>
+      <c r="B7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>115</v>
+      <c r="I7" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8">
-        <v>115</v>
-      </c>
-      <c r="C8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>32</v>
+      <c r="B8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>51</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>121</v>
-      </c>
-      <c r="C9" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" s="2" t="b">
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" s="2" t="b">
         <v>0</v>
       </c>
-      <c r="I9">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11">
-        <v>123</v>
+      <c r="I11" s="4" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>124</v>
+        <v>122</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B13">
-        <v>131</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" t="s">
-        <v>20</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13">
-        <v>141</v>
+        <v>123</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B14">
-        <v>132</v>
+        <v>124</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15">
-        <v>133</v>
+      <c r="B15" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B16">
-        <v>134</v>
+        <v>8</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="B17">
-        <v>141</v>
-      </c>
-      <c r="C17" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" t="s">
-        <v>38</v>
+        <v>133</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B18">
-        <v>142</v>
-      </c>
-      <c r="G18" t="s">
-        <v>33</v>
-      </c>
-      <c r="H18" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19">
-        <v>143</v>
+      <c r="B19" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E19" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="G19" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H19" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B20">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="H20" t="s">
-        <v>38</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21">
+        <v>143</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
+      <c r="H21" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>8</v>
+      </c>
+      <c r="B22">
+        <v>144</v>
+      </c>
+      <c r="G22" t="s">
+        <v>25</v>
+      </c>
+      <c r="H22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1100,7 +1321,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1114,7 +1335,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/MakeTokumLaugh/LubanTools/Datas/Item.xlsx
+++ b/MakeTokumLaugh/LubanTools/Datas/Item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CG\MakeTokumLaugh\MakeTokumLaugh\LubanTools\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CA6C9D7-8519-40CB-857B-D70CAD76A29D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F08C2FC-4459-40B2-9D4F-BCEE74191198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -865,10 +865,10 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>

--- a/MakeTokumLaugh/LubanTools/Datas/Item.xlsx
+++ b/MakeTokumLaugh/LubanTools/Datas/Item.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CG\MakeTokumLaugh\MakeTokumLaugh\LubanTools\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GJ\MakeTokumLaugh\MakeTokumLaugh\LubanTools\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F08C2FC-4459-40B2-9D4F-BCEE74191198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71936943-DF3A-404F-AFCE-33D6077FDFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Item" sheetId="1" r:id="rId1"/>
@@ -18,15 +18,29 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="83">
   <si>
     <t>##var</t>
   </si>
   <si>
+    <t>id</t>
+  </si>
+  <si>
     <t>icon</t>
   </si>
   <si>
@@ -39,6 +53,12 @@
     <t>result</t>
   </si>
   <si>
+    <t>is_reserved</t>
+  </si>
+  <si>
+    <t>lock_id</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -63,6 +83,9 @@
     <t>弹窗反馈效果描述</t>
   </si>
   <si>
+    <t>预制体(不用写后缀</t>
+  </si>
+  <si>
     <t>结果</t>
   </si>
   <si>
@@ -72,7 +95,28 @@
     <t>解锁道具id</t>
   </si>
   <si>
+    <t>1_1_shoutao</t>
+  </si>
+  <si>
+    <t>icon_shoutao.png</t>
+  </si>
+  <si>
+    <t>手套→裤子里伸出一只手</t>
+  </si>
+  <si>
+    <t>11shoutao</t>
+  </si>
+  <si>
     <t>P</t>
+  </si>
+  <si>
+    <t>1_2_shouji</t>
+  </si>
+  <si>
+    <t>1_1_falao</t>
+  </si>
+  <si>
+    <t>icon_falao.png</t>
   </si>
   <si>
     <r>
@@ -80,6 +124,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -92,6 +137,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -99,11 +145,21 @@
     </r>
   </si>
   <si>
+    <t>11falao</t>
+  </si>
+  <si>
+    <t>1_1_damedane</t>
+  </si>
+  <si>
+    <t>icon_damedane.png</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -116,6 +172,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -123,11 +180,21 @@
     </r>
   </si>
   <si>
+    <t>11damedane</t>
+  </si>
+  <si>
+    <t>1_1_tongsheng</t>
+  </si>
+  <si>
+    <t>icon_tongsheng.png</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -140,6 +207,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -147,11 +215,21 @@
     </r>
   </si>
   <si>
+    <t>11tongsheng</t>
+  </si>
+  <si>
+    <t>1_1_geiwowan</t>
+  </si>
+  <si>
+    <t>icon_geiwowan.png</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -164,6 +242,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -171,112 +250,13 @@
     </r>
   </si>
   <si>
+    <t>11geiwowan</t>
+  </si>
+  <si>
     <t>G</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>V</t>
-  </si>
-  <si>
-    <t>注释</t>
-  </si>
-  <si>
-    <t>预制体(不用写后缀</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>手套→裤子里伸出一只手</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>lock_id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>id</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_falao.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_shoutao.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_damedane.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_tongsheng.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_geiwowan.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>icon_shouji.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1_shoutao</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1_falao</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1_damedane</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1_tongsheng</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_1_geiwowan</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_2_shouji</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11shoutao</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11falao</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11damedane</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11tongsheng</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>11geiwowan</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>12shouji</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -293,17 +273,22 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FFDE3C36"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>棒球棍→规则就是用来打破的，打尿崩，gameover</t>
-    </r>
+    <t>12shouji</t>
+  </si>
+  <si>
+    <t>1_3_zhifubao</t>
+  </si>
+  <si>
+    <t>icon_bangqiugun.png</t>
+  </si>
+  <si>
+    <t>棒球棍→规则就是用来打破的，打尿崩，gameover</t>
+  </si>
+  <si>
+    <t>12bangqiugun</t>
+  </si>
+  <si>
+    <t>icon_leishen.png</t>
   </si>
   <si>
     <r>
@@ -319,6 +304,12 @@
     </r>
   </si>
   <si>
+    <t>12leishen</t>
+  </si>
+  <si>
+    <t>icon_link.png</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -330,6 +321,15 @@
       </rPr>
       <t>林克的帽子→从裤裆拔出了大师之剑，拿着大师之剑尿崩了gameover</t>
     </r>
+  </si>
+  <si>
+    <t>12link</t>
+  </si>
+  <si>
+    <t>icon_zhifubao.png</t>
+  </si>
+  <si>
+    <t>蓝色修改器</t>
   </si>
   <si>
     <r>
@@ -346,7 +346,31 @@
     </r>
   </si>
   <si>
+    <t>13zhifubao</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>1_4_jiuchan</t>
+  </si>
+  <si>
+    <t>1_3_weixin</t>
+  </si>
+  <si>
+    <t>icon_weixin</t>
+  </si>
+  <si>
+    <t>绿色修改器</t>
+  </si>
+  <si>
     <t>元梦之心，启动！</t>
+  </si>
+  <si>
+    <t>13weixin</t>
+  </si>
+  <si>
+    <t>icon_bilibili</t>
   </si>
   <si>
     <r>
@@ -360,6 +384,9 @@
       </rPr>
       <t>哔哩哔哩→成为了百大但是尿崩了gameover</t>
     </r>
+  </si>
+  <si>
+    <t>icon_jiuchan.png</t>
   </si>
   <si>
     <r>
@@ -376,104 +403,44 @@
     </r>
   </si>
   <si>
-    <t>蓝色修改器</t>
-  </si>
-  <si>
-    <t>绿色修改器</t>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>N</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_zhifubao.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>14jiuchan</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>注释</t>
+  </si>
+  <si>
+    <t>1_2_bangqiugun</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2_leishen</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_2_link</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>1_3_zhifubao</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_3_weixin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_weixin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>13weixin</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>13zhifubao</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>icon_jiuchan.png</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1_4_jiuchan</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>14jiuchan</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>is_reserved</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_3_bilibili</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -495,7 +462,30 @@
     </font>
     <font>
       <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FFDE3C36"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -530,33 +520,27 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -865,449 +849,457 @@
   <dimension ref="A1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="6" ySplit="3" topLeftCell="I4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="3" topLeftCell="H4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomRight" activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.77734375" customWidth="1"/>
+    <col min="1" max="1" width="6.81640625" customWidth="1"/>
     <col min="2" max="2" width="18" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="23.1796875" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" customWidth="1"/>
-    <col min="8" max="8" width="49.21875" customWidth="1"/>
-    <col min="9" max="9" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="10.36328125" customWidth="1"/>
+    <col min="8" max="8" width="49.1796875" customWidth="1"/>
+    <col min="9" max="9" width="17.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>33</v>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1"/>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I1" s="5" t="s">
-        <v>32</v>
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>34</v>
+        <v>8</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
+      </c>
+      <c r="H2" t="s">
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="6" t="s">
+      <c r="F5" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>43</v>
+      <c r="I5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>37</v>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>49</v>
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>44</v>
+      <c r="I6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="3" t="s">
-        <v>21</v>
-      </c>
       <c r="E7" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>50</v>
+        <v>39</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H7" t="b">
         <v>1</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>51</v>
-      </c>
       <c r="G8" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H8" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="5"/>
+      <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="5"/>
+      <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="4" t="s">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12">
-        <v>122</v>
-      </c>
-      <c r="E12" s="7" t="s">
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13">
-        <v>123</v>
-      </c>
-      <c r="E13" s="8" t="s">
+      <c r="E13" s="5" t="s">
         <v>55</v>
       </c>
+      <c r="F13" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14">
-        <v>124</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>56</v>
+      <c r="B14" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="F14" t="s">
+        <v>59</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>65</v>
+      <c r="B15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>60</v>
       </c>
       <c r="D15" t="s">
         <v>61</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="E15" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H15" t="s">
+        <v>64</v>
+      </c>
+      <c r="I15" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" t="s">
+        <v>69</v>
+      </c>
+      <c r="F16" t="s">
         <v>70</v>
       </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="4" t="s">
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E17" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17">
-        <v>133</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>8</v>
+      <c r="A18" t="s">
+        <v>11</v>
       </c>
       <c r="B18">
         <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="E19" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="4" t="s">
+      <c r="B19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" t="s">
         <v>73</v>
       </c>
+      <c r="E19" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F19" t="s">
+        <v>75</v>
+      </c>
       <c r="G19" t="s">
-        <v>27</v>
+        <v>76</v>
       </c>
       <c r="H19" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>8</v>
+      <c r="A20" t="s">
+        <v>11</v>
       </c>
       <c r="B20">
         <v>142</v>
       </c>
       <c r="G20" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>8</v>
+      <c r="A21" t="s">
+        <v>11</v>
       </c>
       <c r="B21">
         <v>143</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>8</v>
+      <c r="A22" t="s">
+        <v>11</v>
       </c>
       <c r="B22">
         <v>144</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>26</v>
+        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>28</v>
+      <c r="A24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B24" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="F24" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" t="s">
+        <v>77</v>
+      </c>
+      <c r="H24" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1319,9 +1311,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -1333,9 +1325,9 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
